--- a/2025 Star Tables.xlsx
+++ b/2025 Star Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinconrad/Library/CloudStorage/Dropbox/WorldCrafting101-DEV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181DD658-61CA-8749-B94F-7B9F6C6481E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2B7BD-4323-0947-A64D-BA974F7352F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="23920" windowWidth="31580" windowHeight="17820" activeTab="1" xr2:uid="{A45E239F-017E-8B4E-B0E1-84F8677CA5DA}"/>
+    <workbookView minimized="1" xWindow="2960" yWindow="23920" windowWidth="31580" windowHeight="17820" xr2:uid="{A45E239F-017E-8B4E-B0E1-84F8677CA5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Star Tables" sheetId="3" r:id="rId1"/>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -5615,7 +5615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739874AA-BB2E-4150-8950-AD65B98EE5F2}">
   <dimension ref="A1:AL219"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -24370,7 +24370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E71127-29D5-ED49-BF58-610629E0810F}">
   <dimension ref="A2:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/2025 Star Tables.xlsx
+++ b/2025 Star Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinconrad/Library/CloudStorage/Dropbox/WorldCrafting101-DEV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2B7BD-4323-0947-A64D-BA974F7352F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D9AA93A-7595-4541-AB92-C1918C36C6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2960" yWindow="23920" windowWidth="31580" windowHeight="17820" xr2:uid="{A45E239F-017E-8B4E-B0E1-84F8677CA5DA}"/>
+    <workbookView xWindow="2960" yWindow="23920" windowWidth="31580" windowHeight="17820" xr2:uid="{A45E239F-017E-8B4E-B0E1-84F8677CA5DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Star Tables" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,12 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Star Tables'!$E$47:$E$74</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Star Tables'!$H$47:$H$74</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Star Tables'!$L$47:$L$74</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Star Tables'!$E$47:$E$74</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Star Tables'!$H$47:$H$74</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Star Tables'!$L$47:$L$74</definedName>
     <definedName name="APPROXIMATE_FRACTION">_xlfn.LAMBDA(_xlpm.input,_xlop.mode,_xlop.prec, _xlfn.LET(_xlpm.mode, IF((_xlpm.mode &gt; 1) + (_xlfn.ISOMITTED(_xlpm.mode)), 0, _xlpm.mode), _xlpm.prec, IF(_xlfn.ISOMITTED(_xlpm.prec), 3, _xlpm.prec), _xlpm.fmt, _xlfn.CONCAT("?/", REPT("?", _xlpm.prec)), _xlpm.fraction, _xlfn.SWITCH(_xlpm.mode, 0, TEXT(_xlpm.input, _xlpm.fmt), 1, TEXT(MOD(_xlpm.input, 1), _xlpm.fmt)), _xlpm.output, _xlfn.SWITCH(_xlpm.mode, 0, _xlpm.fraction, 1, IF(QUOTIENT(_xlpm.input, 1) &lt;&gt; 0, _xlfn.TEXTJOIN("-", , QUOTIENT(_xlpm.input, 1), _xlpm.fraction), _xlpm.fraction)), _xlpm.output))</definedName>
     <definedName name="Astro.ASTRO_APPARENT_SOLAR_SIZE">_xlfn.LAMBDA(_xlpm.radius,_xlpm.distance,_xlop.format,_xlop.prec, _xlfn.LET(_xlpm.p, IF(_xlfn.ISOMITTED(_xlpm.prec), 4, _xlpm.prec), _xlpm.raw, _xlpm.radius / _xlpm.distance, _xlpm.result, IF(OR(_xlfn.ISOMITTED(_xlpm.format), _xlpm.format = "formatted"), TEXT(_xlpm.raw, "0." &amp; REPT("0", _xlpm.p)) &amp; "☉", _xlpm.raw), _xlpm.result))</definedName>
     <definedName name="Astro.ASTRO_CALC_TEMP">_xlfn.LAMBDA(_xlpm.subclass, _xlfn.LET(_xlpm.arrTypes, {"O0";"O1";"O2";"O3";"O4";"O5";"O6";"O7";"O8";"O9";"B0";"B1";"B2";"B3";"B4";"B5";"B6";"B7";"B8";"B9";"A0";"A1";"A2";"A3";"A4";"A5";"A6";"A7";"A8";"A9";"F0";"F1";"F2";"F3";"F4";"F5";"F6";"F7";"F8";"F9";"G0";"G1";"G2";"G3";"G4";"G5";"G6";"G7";"G8";"G9";"K0";"K1";"K2";"K3";"K4";"K5";"K6";"K7";"K8";"K9";"M0";"M1";"M2";"M3";"M4";"M5";"M6";"M7";"M8";"M9"}, _xlpm.arrTHigh, {55000;52000;49000;46000;43000;40000;37000;34000;31000;28000;25000;23500;22000;20500;19000;17500;16000;14500;13000;11500;10000;9750;9500;9250;9000;8750;8500;8250;8000;7750;7500;7350;7200;7050;6900;6750;6600;6450;6300;6150;6000;5900;5800;5700;5600;5500;5400;5300;5200;5100;5000;4850;4700;4550;4400;4250;4100;3950;3800;3650;3500;3390;3280;3170;3060;2950;2840;2730;2620;2510}, _xlpm.arrSpan, {3000;3000;3000;3000;3000;3000;3000;3000;3000;3000;1500;1500;1500;1500;1500;1500;1500;1500;1500;1500;250;250;250;250;250;250;250;250;250;250;150;150;150;150;150;150;150;150;150;150;100;100;100;100;100;100;100;100;100;100;150;150;150;150;150;150;150;150;150;150;110;110;110;110;110;110;110;110;110;110}, _xlpm.mtxStars, _xlfn.HSTACK(_xlpm.arrTypes, _xlpm.arrTHigh, _xlpm.arrSpan), _xlpm.no_space, SUBSTITUTE(_xlpm.subclass, " ", ""), _xlpm.dot_pos, FIND(".", _xlpm.no_space &amp; ".0"), _xlpm.base, LEFT(_xlpm.no_space, _xlpm.dot_pos - 1), _xlpm.f, VALUE("0." &amp; MID(_xlpm.no_space, _xlpm.dot_pos + 1, LEN(_xlpm.no_space))), _xlpm.T_high, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 2)), _xlpm.span, _xlfn.XLOOKUP(_xlpm.base, INDEX(_xlpm.mtxStars, , 1), INDEX(_xlpm.mtxStars, , 3)), _xlpm.result, _xlpm.T_high - (_xlpm.f * _xlpm.span), _xlpm.result))</definedName>
@@ -1148,6 +1154,1246 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Star Tables'!$E$47:$E$74</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>F2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>G1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>G3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>G4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>G5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>G6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>G7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>G9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>K0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>K1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>K3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>K4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>K5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>K6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>K7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>K8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>K9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Star Tables'!$L$47:$L$74</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.33921690367851276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37687244296519118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41965704103032003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46840454846630503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52410739812936069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5879513537189075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66135892781207262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7460439089484634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84408020576131648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91807869576971868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0908516414069931</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1917902627067587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.304146920913251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4294572401925807</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5694974694526413</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7263277418373086</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9023441504575558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1003416576000009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4458581990947663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8618751137669207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3657587579297292</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.979940554544835</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7336409964665478</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6652709335773936</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.825814626870609</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.2836546519343539</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.131544249084698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D883-5449-9BE7-CBCE35296C95}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="461656944"/>
+        <c:axId val="461658656"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="461656944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461658656"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="461658656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461656944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lifetime ⊙</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Star Tables'!$E$47:$E$74</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>F2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>G1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>G3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>G4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>G5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>G6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>G7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>G9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>K0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>K1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>K3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>K4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>K5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>K6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>K7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>K8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>K9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Star Tables'!$L$47:$L$74</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.000</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.33921690367851276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37687244296519118</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41965704103032003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46840454846630503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52410739812936069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5879513537189075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66135892781207262</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7460439089484634</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84408020576131648</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91807869576971868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0908516414069931</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1917902627067587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.304146920913251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4294572401925807</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5694974694526413</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7263277418373086</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9023441504575558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1003416576000009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.4458581990947663</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.8618751137669207</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.3657587579297292</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.979940554544835</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.7336409964665478</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6652709335773936</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.825814626870609</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.2836546519343539</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.131544249084698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69C7-FE48-AB23-1EFD21974AEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="416204496"/>
+        <c:axId val="416191440"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mass ⊙</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Star Tables'!$E$47:$E$74</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>F2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>F3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>F5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>F8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>F9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>G0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>G1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>G2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>G3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>G4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>G5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>G6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>G7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>G8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>G9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>K0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>K1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>K2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>K3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>K4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>K5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>K6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>K7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>K8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>K9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Star Tables'!$H$47:$H$74</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1.5410225921521998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4774821640903684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4152794292508919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3544143876337691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2948870392390013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2366973840665874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.179845422116528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1243311533888227</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0701545778834722</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0347800237812126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96581450653983347</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.93222354340071356</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89922711058263971</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86682520808561236</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83501783590963152</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.80380499405469685</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.77318668252080858</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74316290130796658</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69924197384066578</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.6566587395957193</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.61541319857312715</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.57550535077288933</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53693519619500585</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.49970273483947675</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.46380796670630198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.42925089179548154</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.39603151010701543</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69C7-FE48-AB23-1EFD21974AEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="416204496"/>
+        <c:axId val="416191440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="416204496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416191440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="416191440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416204496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1870,7 +3116,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2626,7 +3872,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3129,7 +5487,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4029,6 +6387,78 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>359207</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>120086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>46592</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6BF8569-237A-4B9C-70E8-5341DDD98F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>423083</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>37423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>65379</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>135416</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA23429-E1F9-6C24-58A0-D108C54E6C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5615,8 +8045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739874AA-BB2E-4150-8950-AD65B98EE5F2}">
   <dimension ref="A1:AL219"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.7109375" defaultRowHeight="13"/>
